--- a/DBA/Reportes BI/2021/Facturación/Financiadores Sin Definir.xlsx
+++ b/DBA/Reportes BI/2021/Facturación/Financiadores Sin Definir.xlsx
@@ -351,6 +351,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
